--- a/ShareEnergyRenewableData.xlsx
+++ b/ShareEnergyRenewableData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujitsu\Desktop\Data Visualization\Group Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C47748-0CBF-4FBB-99B4-F571AC3F38A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24590F4A-4311-4CF1-B2F2-AB905302E79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Denmark</t>
@@ -133,9 +130,6 @@
     <t xml:space="preserve">Kosovo </t>
   </si>
   <si>
-    <t xml:space="preserve">Germany </t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -149,6 +143,12 @@
   </si>
   <si>
     <t>Electricity Sector</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,19 +556,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>2016</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2016</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>2016</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>2016</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>2016</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>2016</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>2016</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>2016</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>2016</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>2016</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>2016</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>2016</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>2016</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>2016</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>2016</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>2016</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>2016</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>2016</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>2016</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>2016</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>2016</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>2016</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>2016</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2016</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>2016</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>2016</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>2016</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>2016</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>2016</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>2016</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>2016</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>2016</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>2016</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>2016</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>2016</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>2017</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1">
         <v>2017</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>2017</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
         <v>2017</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1">
         <v>2017</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1">
         <v>2017</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1">
         <v>2017</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
         <v>2017</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <v>2017</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1">
         <v>2017</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1">
         <v>2017</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1">
         <v>2017</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1">
         <v>2017</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="1">
         <v>2017</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1">
         <v>2017</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1">
         <v>2017</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" s="1">
         <v>2017</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1">
         <v>2017</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1">
         <v>2017</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" s="1">
         <v>2017</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1">
         <v>2017</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" s="1">
         <v>2017</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1">
         <v>2017</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1">
         <v>2017</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1">
         <v>2017</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" s="1">
         <v>2017</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" s="1">
         <v>2017</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" s="1">
         <v>2017</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" s="1">
         <v>2017</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" s="1">
         <v>2017</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" s="1">
         <v>2017</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B78" s="1">
         <v>2018</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1">
         <v>2018</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B80" s="1">
         <v>2018</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1">
         <v>2018</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82" s="1">
         <v>2018</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83" s="1">
         <v>2018</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1">
         <v>2018</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" s="1">
         <v>2018</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86" s="1">
         <v>2018</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" s="1">
         <v>2018</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1">
         <v>2018</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89" s="1">
         <v>2018</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90" s="1">
         <v>2018</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" s="1">
         <v>2018</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1">
         <v>2018</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93" s="1">
         <v>2018</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94" s="1">
         <v>2018</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B95" s="1">
         <v>2018</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96" s="1">
         <v>2018</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B97" s="1">
         <v>2018</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98" s="1">
         <v>2018</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99" s="1">
         <v>2018</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="1">
         <v>2018</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101" s="1">
         <v>2018</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102" s="1">
         <v>2018</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B103" s="1">
         <v>2018</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B104" s="1">
         <v>2018</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B105" s="1">
         <v>2018</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B106" s="1">
         <v>2018</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B107" s="1">
         <v>2018</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B108" s="1">
         <v>2018</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B109" s="1">
         <v>2018</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B110" s="1">
         <v>2018</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B111" s="1">
         <v>2018</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B112" s="1">
         <v>2018</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B115" s="1">
         <v>2019</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" s="1">
         <v>2019</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B117" s="1">
         <v>2019</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="1">
         <v>2019</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" s="1">
         <v>2019</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B120" s="1">
         <v>2019</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" s="1">
         <v>2019</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1">
         <v>2019</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B123" s="1">
         <v>2019</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B124" s="1">
         <v>2019</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125" s="1">
         <v>2019</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B126" s="1">
         <v>2019</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B127" s="1">
         <v>2019</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128" s="1">
         <v>2019</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129" s="1">
         <v>2019</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B130" s="1">
         <v>2019</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131" s="1">
         <v>2019</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B132" s="1">
         <v>2019</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" s="1">
         <v>2019</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134" s="1">
         <v>2019</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B135" s="1">
         <v>2019</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B136" s="1">
         <v>2019</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B137" s="1">
         <v>2019</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B138" s="1">
         <v>2019</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B139" s="1">
         <v>2019</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B140" s="1">
         <v>2019</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B141" s="1">
         <v>2019</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B142" s="1">
         <v>2019</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B143" s="1">
         <v>2019</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B144" s="1">
         <v>2019</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B145" s="1">
         <v>2019</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B146" s="1">
         <v>2019</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B147" s="1">
         <v>2019</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B148" s="1">
         <v>2019</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B149" s="1">
         <v>2019</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B152" s="1">
         <v>2020</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B153" s="1">
         <v>2020</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B154" s="1">
         <v>2020</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" s="1">
         <v>2020</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B156" s="1">
         <v>2020</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B157" s="1">
         <v>2020</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1">
         <v>2020</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159" s="1">
         <v>2020</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B160" s="1">
         <v>2020</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1">
         <v>2020</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B162" s="1">
         <v>2020</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B163" s="1">
         <v>2020</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B164" s="1">
         <v>2020</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B165" s="1">
         <v>2020</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B166" s="1">
         <v>2020</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B167" s="1">
         <v>2020</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B168" s="1">
         <v>2020</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B169" s="1">
         <v>2020</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B170" s="1">
         <v>2020</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B171" s="1">
         <v>2020</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B172" s="1">
         <v>2020</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B173" s="1">
         <v>2020</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B174" s="1">
         <v>2020</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B175" s="1">
         <v>2020</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B176" s="1">
         <v>2020</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B177" s="1">
         <v>2020</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B178" s="1">
         <v>2020</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B179" s="1">
         <v>2020</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B180" s="1">
         <v>2020</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B181" s="1">
         <v>2020</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B182" s="1">
         <v>2020</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B183" s="1">
         <v>2020</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B184" s="1">
         <v>2020</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B185" s="1">
         <v>2020</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B186" s="1">
         <v>2020</v>
